--- a/ITcoach/openpyxl处理数据/1.20 实例应用（二维表转一维表）/业绩表.xlsx
+++ b/ITcoach/openpyxl处理数据/1.20 实例应用（二维表转一维表）/业绩表.xlsx
@@ -3,50 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9241" windowWidth="16253" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16253" windowHeight="9241" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="转换表" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="一维表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>1月</t>
-  </si>
-  <si>
-    <t>2月</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>王二麻子</t>
-  </si>
-  <si>
-    <t>陈小明</t>
-  </si>
-  <si>
-    <t>月份</t>
-  </si>
-  <si>
-    <t>业绩</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -86,15 +52,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -373,23 +339,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>87410</v>
@@ -401,9 +377,11 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>96850</v>
@@ -415,9 +393,11 @@
         <v>79300</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>王二麻子</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>153000</v>
@@ -429,9 +409,11 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>陈小明</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>89000</v>
@@ -444,8 +426,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
 
@@ -463,150 +445,420 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>月份</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>业绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>87410</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>98000</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>110000</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>96850</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>69000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>79300</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>王二麻子</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>153000</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>王二麻子</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>75600</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>王二麻子</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>90000</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>陈小明</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>89000</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>陈小明</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>87600</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>陈小明</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>86300</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>月份</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>业绩</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>87410</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>96850</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>79300</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>王二麻子</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>王二麻子</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>75600</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>王二麻子</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>陈小明</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>89000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>陈小明</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>87600</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>陈小明</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>86300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>